--- a/file/TGE-513-TaitungFood.xlsx
+++ b/file/TGE-513-TaitungFood.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.7_TravelGuide/TravelGuide-EastCoast/file/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49B9818D-476C-284D-B04C-CDE0CCFE8327}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9EEE105-FEAF-7A4C-BC1B-EDFD0DA22ED5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21900" yWindow="2280" windowWidth="28260" windowHeight="17560" xr2:uid="{D3AFD15B-93CE-274B-9649-165B08EE0016}"/>
+    <workbookView xWindow="23720" yWindow="4820" windowWidth="28260" windowHeight="17560" xr2:uid="{D3AFD15B-93CE-274B-9649-165B08EE0016}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="95">
   <si>
     <t>NO</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -43,10 +43,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Shop</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Description</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -97,6 +93,300 @@
   </si>
   <si>
     <t>Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>007</t>
+  </si>
+  <si>
+    <t>008</t>
+  </si>
+  <si>
+    <t>009</t>
+  </si>
+  <si>
+    <t>010</t>
+  </si>
+  <si>
+    <t>台東</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晨霄海鮮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不起眼的公路旁卻藏著必吃美食！沒有菜單，旁邊就只有幾個小牌子寫上供應的炒時蔬與飯麵類，海鮮必須要看當天老闆供應。抱著單純填飽肚子的心情用餐，一吃下肚瞬間改觀！蝦子超級鮮甜，魚湯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台東縣長濱鄉成靜公路41-3號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11:00-14:00，17:00-20:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（08）980-1368</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.facebook.com/pages/category/Seafood-Restaurant/%E6%99%A8%E9%9C%84%E6%B5%B7%E9%AE%AE%E5%B0%8F%E5%90%83-151014165088863/</t>
+  </si>
+  <si>
+    <t>fig/TGE-5103-TaitungFood-01.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/TGE-5103-TaitungFood-02.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/TGE-5103-TaitungFood-03.jpg</t>
+  </si>
+  <si>
+    <t>fig/TGE-5103-TaitungFood-04.jpg</t>
+  </si>
+  <si>
+    <t>fig/TGE-5103-TaitungFood-05.jpg</t>
+  </si>
+  <si>
+    <t>fig/TGE-5103-TaitungFood-06.jpg</t>
+  </si>
+  <si>
+    <t>fig/TGE-5103-TaitungFood-07.jpg</t>
+  </si>
+  <si>
+    <t>fig/TGE-5103-TaitungFood-08.jpg</t>
+  </si>
+  <si>
+    <t>fig/TGE-5103-TaitungFood-09.jpg</t>
+  </si>
+  <si>
+    <t>fig/TGE-5103-TaitungFood-10.jpg</t>
+  </si>
+  <si>
+    <t>藍蜻蜓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>醒目的藍色招牌，遠遠看去人龍總是不斷，漫長的等待總是值得，炸雞的外觀就像古早味便當店的雞腿，薄皮且酥脆，吃的時候非常建議拿著袋子享用，超會滴汁！這麼多汁的炸雞只有藍蜻蜓才吃得到</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台東縣台東市大同路214號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（08）931-0869</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10:30–23:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.facebook.com/bluedragonflytaitung/</t>
+  </si>
+  <si>
+    <t>榕樹下米苔目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜單非常的可愛童趣，只賣米苔目乾的與湯的兩種，雖然樸實無華，卻是最簡單的美味。米苔目吃起來特別Q彈，醬料也不會太過於鹹，搭在一起這麼的剛好，是台東非常知名的美食小吃。女生的話建議點大碗的會比較有飽足感呦！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台東縣台東市大同路176號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09:30–15:00，17:00–20:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0963-148-519</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.facebook.com/%E6%A6%95%E6%A8%B9%E4%B8%8B%E7%B1%B3%E8%8B%94%E7%9B%AE-840972072597237/</t>
+  </si>
+  <si>
+    <t>黑松羊肉爐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>佛心來著的黑松羊肉爐，最貴最貴的羊肉爐才350元，超級便宜。羊肉爐的肉也十分大塊，吃起來沒有令人害怕的羊騷味與乾柴，搭配豆瓣醬吃又是另一種享受，湯頭也非常濃郁。除了羊肉爐以外，沙茶羊肉也超級下飯，喜歡吃羊肉的朋友一定要去！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台東縣台東市知本路三段144之2號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16:30–22:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（08）951-2477</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.facebook.com/HeiSongMuttonHotPot/</t>
+  </si>
+  <si>
+    <t>寶桑豆花</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>開了三十多年的老店舖，甜度適中的糖水配上軟綿的豆花，粉圓是軟Q的口感，_x0008_雖然店鋪不是很大，人潮總是絡繹不絕，喜歡這樣的古早味甜點，清甜的美味驟降了熱暑的不適感。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台東縣台東市正氣路115號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14:00–22:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（08）934-7213</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.facebook.com/pages/category/Restaurant/%E5%8F%B0%E6%9D%B1%E5%8F%A4%E6%97%A9%E5%91%B3%E5%AF%B6%E6%A1%91%E8%B1%86%E8%8A%B1-109125305832169/</t>
+  </si>
+  <si>
+    <t>都蘭海角咖啡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不起眼的小巷中，開車約莫50m就抵達的世外桃源，清一色的外國面孔，配上碧海藍天的海天一線。廣大的腹地能夠當作高爾夫球的練習場地，有時也會當作有露營地使用。享受美景與咖啡還不夠？拿起你的浪板去衝浪吧！都蘭海角咖啡還有提供衝浪教學的服務，第一次體驗的朋友也別擔心，旁邊都會有教練指導你！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台東縣東河鄉鉛橋產業道路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11:00-19:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">0903-262-923 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.facebook.com/capeparadisedulan/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">藍色愛情海 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>無菜單的原住民料理，便宜的價格卻吃得到高品質的餐點。每次去的菜色都不同，去的時候一定要先訂位，因為都準備最新鮮的食材，所以會依照訂位來準備當天的份量。藍色愛情海不只菜色好吃，連景色都是絕佳美景，網美的你可別錯過機會拍照。招牌烤雞也是需要提前預約的呦！酥脆的金黃外皮，肉質特別的鮮美，旁邊還會附手套方便食用。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台東縣台東市吉林路二段634號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11:00–14:00，17:00–20:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">（08）928-1758 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.facebook.com/pages/category/Restaurant/%E5%8F%B0%E6%9D%B1%E8%97%8D%E8%89%B2%E6%84%9B%E6%83%85%E6%B5%B7-117842081572722/</t>
+  </si>
+  <si>
+    <t>池上便當</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>位於台東池上車站旁就有三家便當：家鄉、悟饕、全美行，到了台東當然要吃池上便當！說到池上便當，最讓人念念不忘的就是那冠軍池上米，就算便當放涼了才吃，那米飯還是一樣Q。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台東縣池上鄉中正路4號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>07:00–20:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（08）986-3521</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.wu-tau.com/</t>
+  </si>
+  <si>
+    <t>台澢號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台澢號是位於都蘭糖廠附近的一家特色冰店，「台澢」是台東的台語發音。店裡以造型獨特的冰品「海浪冰」聞名，使用藍柑桔醬以及鹹奶油製作出蔚藍的海浪以及浪花的視覺效果。除了冰品以外，炸物也非常美味，是來到台東都蘭必吃的特色美食。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台東縣東河鄉146-2號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>週三至週日 11:00 - 18:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0955 092 961</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.facebook.com/TaitungTeaHouse/</t>
+  </si>
+  <si>
+    <t>黃記蔥油餅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黃記蔥油餅位在台東市海濱公園附近，鮮甜的青蔥加上九層塔，為蔥油餅的口感更添層次。大部份時候需要小排隊，不過店家手腳很快所以並不會等候太久，拿到熱騰騰的蔥油餅還可以到一旁的海濱公園看海享受美味蔥油餅，是非常推薦來台東品嚐的美食小吃。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台東縣台東市南海路36號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14:00 - 18:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0915 308 581</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.facebook.com/%E9%BB%83%E8%A8%98%E8%94%A5%E6%B2%B9%E9%A4%85%E6%B5%B7%E6%BF%B1%E5%BA%97-440404255983022/</t>
+  </si>
+  <si>
+    <t>長濱鄉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台東市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>東河鄉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>池上鄉</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -486,13 +776,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B381011-57CE-744B-93B5-4755BEF67163}">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="10" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J1" sqref="J1"/>
+      <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomRight" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -500,15 +790,14 @@
     <col min="1" max="1" width="10.83203125" style="1"/>
     <col min="2" max="3" width="12.5" customWidth="1"/>
     <col min="4" max="4" width="15.5" customWidth="1"/>
-    <col min="5" max="5" width="17.1640625" customWidth="1"/>
-    <col min="6" max="6" width="56.6640625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="10.83203125" style="2"/>
-    <col min="8" max="8" width="17" style="2" customWidth="1"/>
-    <col min="10" max="10" width="25.33203125" customWidth="1"/>
-    <col min="11" max="11" width="10.83203125" style="3"/>
+    <col min="5" max="5" width="56.6640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" style="2"/>
+    <col min="7" max="7" width="17" style="2" customWidth="1"/>
+    <col min="9" max="9" width="37" customWidth="1"/>
+    <col min="10" max="10" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16">
+    <row r="1" spans="1:10" ht="16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -516,79 +805,349 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
         <v>15</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="64">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="64">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="64">
+      <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="80">
+      <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="48">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="96">
+      <c r="A7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
+        <v>93</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="96">
+      <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>9</v>
+      <c r="B8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" t="s">
+        <v>92</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="4"/>
+    <row r="9" spans="1:10" ht="48">
+      <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" t="s">
+        <v>94</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>78</v>
+      </c>
     </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="4"/>
+    <row r="10" spans="1:10" ht="80">
+      <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" t="s">
+        <v>93</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="4"/>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="4"/>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="4"/>
+    <row r="11" spans="1:10" ht="80">
+      <c r="A11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" t="s">
+        <v>92</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>90</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
